--- a/clcore_ig/output/StructureDefinition-ProvenanceCl.xlsx
+++ b/clcore_ig/output/StructureDefinition-ProvenanceCl.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="413">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.7</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-07T17:15:51-03:00</t>
+    <t>2024-09-26T12:51:50-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Chile (http://hl7chile.cl, chair@hl7chile.cl)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Este Perfil describe la forma de validación respecto a la procedencia de un recurso genrado durante un acto clínico.</t>
+    <t>Este Perfil describe la forma de validación respecto a la procedencia de un recurso generado durante un acto clínico.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -708,7 +708,7 @@
     <t>Provenance.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreLocalizacionCl)
 </t>
   </si>
   <si>
@@ -975,56 +975,60 @@
     <t>Provenance.agent.who</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePrestadorCl|https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreRolClinicoCl|RelatedPerson|https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePacienteCl|Device|https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreOrganizacionCl)
+</t>
+  </si>
+  <si>
+    <t>Quien emite el recurso</t>
+  </si>
+  <si>
+    <t>Definición mediate la id de un recurso al emisor de receta</t>
+  </si>
+  <si>
+    <t>whoIdentity should be used when the agent is not a Resource type.</t>
+  </si>
+  <si>
+    <t>Event.performer.actor</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>Provenance.agent.who.id</t>
+  </si>
+  <si>
+    <t>Provenance.agent.who.extension</t>
+  </si>
+  <si>
+    <t>Provenance.agent.who.reference</t>
+  </si>
+  <si>
+    <t>Referencia al misor del recurso</t>
+  </si>
+  <si>
+    <t>Recurso que indica al practitioner que genera el recurso a validar</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Provenance.agent.who.type</t>
+  </si>
+  <si>
+    <t>Provenance.agent.who.identifier</t>
+  </si>
+  <si>
+    <t>Provenance.agent.who.display</t>
+  </si>
+  <si>
+    <t>Provenance.agent.onBehalfOf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reference(Practitioner|PractitionerRole|RelatedPerson|Patient|Device|Organization)
 </t>
-  </si>
-  <si>
-    <t>Quien emite el recurso</t>
-  </si>
-  <si>
-    <t>Definición mediate la id de un recurso al emisor de receta</t>
-  </si>
-  <si>
-    <t>whoIdentity should be used when the agent is not a Resource type.</t>
-  </si>
-  <si>
-    <t>Event.performer.actor</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>Provenance.agent.who.id</t>
-  </si>
-  <si>
-    <t>Provenance.agent.who.extension</t>
-  </si>
-  <si>
-    <t>Provenance.agent.who.reference</t>
-  </si>
-  <si>
-    <t>Referencia al misor del recurso</t>
-  </si>
-  <si>
-    <t>Recurso que indica al practitioner que genera el recurso a validar</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Provenance.agent.who.type</t>
-  </si>
-  <si>
-    <t>Provenance.agent.who.identifier</t>
-  </si>
-  <si>
-    <t>Provenance.agent.who.display</t>
-  </si>
-  <si>
-    <t>Provenance.agent.onBehalfOf</t>
   </si>
   <si>
     <t>Who the agent is representing</t>
@@ -1628,7 +1632,7 @@
     <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="74.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4840,7 +4844,7 @@
         <v>92</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>82</v>
@@ -5427,7 +5431,7 @@
         <v>92</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>82</v>
@@ -6840,16 +6844,16 @@
         <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6917,7 +6921,7 @@
         <v>82</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>82</v>
@@ -6931,10 +6935,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6960,10 +6964,10 @@
         <v>248</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7014,7 +7018,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7032,24 +7036,24 @@
         <v>82</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7161,10 +7165,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7278,10 +7282,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7397,10 +7401,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7426,10 +7430,10 @@
         <v>112</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7456,13 +7460,13 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
@@ -7480,7 +7484,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>92</v>
@@ -7498,24 +7502,24 @@
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7541,13 +7545,13 @@
         <v>150</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7597,7 +7601,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>92</v>
@@ -7615,10 +7619,10 @@
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>82</v>
@@ -7629,10 +7633,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7658,13 +7662,13 @@
         <v>83</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7714,7 +7718,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -7732,7 +7736,7 @@
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>82</v>
@@ -7746,10 +7750,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7772,13 +7776,13 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7829,7 +7833,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -7847,7 +7851,7 @@
         <v>82</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>82</v>
@@ -7861,10 +7865,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7976,10 +7980,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8093,10 +8097,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8110,7 +8114,7 @@
         <v>81</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>82</v>
@@ -8122,13 +8126,13 @@
         <v>278</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8157,10 +8161,10 @@
         <v>116</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>82</v>
@@ -8178,7 +8182,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>92</v>
@@ -8210,10 +8214,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8239,13 +8243,13 @@
         <v>206</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8295,7 +8299,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>92</v>
@@ -8327,10 +8331,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8356,13 +8360,13 @@
         <v>308</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8412,7 +8416,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>92</v>
@@ -8444,10 +8448,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8559,10 +8563,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8676,10 +8680,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8705,10 +8709,10 @@
         <v>159</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N61" t="s" s="2">
         <v>320</v>
@@ -8793,10 +8797,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8910,10 +8914,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9027,10 +9031,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9144,10 +9148,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9170,19 +9174,19 @@
         <v>93</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -9231,7 +9235,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9263,10 +9267,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9292,13 +9296,13 @@
         <v>112</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9324,13 +9328,13 @@
         <v>82</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>82</v>
@@ -9348,7 +9352,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -9380,10 +9384,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9409,13 +9413,13 @@
         <v>112</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9441,13 +9445,13 @@
         <v>82</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>82</v>
@@ -9465,7 +9469,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -9497,10 +9501,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9508,7 +9512,7 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>92</v>
@@ -9523,16 +9527,16 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9582,7 +9586,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
